--- a/iworks-manager-scripts/input/test.xlsx
+++ b/iworks-manager-scripts/input/test.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="894"/>
+    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="894" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="表设计模板" sheetId="28" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="29" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="30" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="31" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>1.表描述</t>
   </si>
@@ -34,139 +37,368 @@
     <t>创建</t>
   </si>
   <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>2.表索引</t>
+  </si>
+  <si>
+    <t>索引类型</t>
+  </si>
+  <si>
+    <t>索引名称</t>
+  </si>
+  <si>
+    <t>索引字段</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>pkid,xxx</t>
+  </si>
+  <si>
+    <t>唯一索引</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>3.表字段结构</t>
+  </si>
+  <si>
+    <t>字段描述</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>不可为空</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>自增主键</t>
+  </si>
+  <si>
+    <t>pkid</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>auto_increment</t>
+  </si>
+  <si>
+    <t>字段1</t>
+  </si>
+  <si>
+    <t>column_1</t>
+  </si>
+  <si>
+    <t>varchar(64)</t>
+  </si>
+  <si>
+    <t>字段2</t>
+  </si>
+  <si>
+    <t>column_2</t>
+  </si>
+  <si>
+    <t>字段3</t>
+  </si>
+  <si>
+    <t>column_3</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>数据签名</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>股乖乖</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1-可用；2-禁用</t>
+  </si>
+  <si>
+    <t>逻辑状态</t>
+  </si>
+  <si>
+    <t>lstate</t>
+  </si>
+  <si>
+    <t>1-正常；2-删除</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>最后修改时间</t>
+  </si>
+  <si>
+    <t>modify_time</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 表名</t>
+    </r>
+  </si>
+  <si>
+    <t>basic.t_app_constant</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 描述</t>
+    </r>
+  </si>
+  <si>
+    <t>系统常量数据</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 创建</t>
+    </r>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
-    <t>2.表索引</t>
-  </si>
-  <si>
-    <t>索引类型</t>
-  </si>
-  <si>
-    <t>索引名称</t>
-  </si>
-  <si>
-    <t>索引字段</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>pkid,xxx</t>
-  </si>
-  <si>
-    <t>唯一索引</t>
-  </si>
-  <si>
-    <t>索引</t>
-  </si>
-  <si>
-    <t>3.表字段结构</t>
-  </si>
-  <si>
-    <t>字段描述</t>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>不可为空</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>自增主键</t>
-  </si>
-  <si>
-    <t>pkid</t>
-  </si>
-  <si>
-    <t>bigint</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>auto_increment</t>
-  </si>
-  <si>
-    <t>字段1</t>
-  </si>
-  <si>
-    <t>column_1</t>
-  </si>
-  <si>
-    <t>varchar(64)</t>
-  </si>
-  <si>
-    <t>字段2</t>
-  </si>
-  <si>
-    <t>column_2</t>
-  </si>
-  <si>
-    <t>字段3</t>
-  </si>
-  <si>
-    <t>column_3</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>数据签名</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>股乖乖</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>smallint</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1-可用；2-禁用</t>
-  </si>
-  <si>
-    <t>逻辑状态</t>
-  </si>
-  <si>
-    <t>lstate</t>
-  </si>
-  <si>
-    <t>1-正常；2-删除</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>最后修改时间</t>
-  </si>
-  <si>
-    <t>modify_time</t>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>index_constant_key</t>
+  </si>
+  <si>
+    <t>constant_key</t>
+  </si>
+  <si>
+    <t>字段注释</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段类型</t>
+    </r>
+  </si>
+  <si>
+    <t>是否不可为空</t>
+  </si>
+  <si>
+    <t>常量编码</t>
+  </si>
+  <si>
+    <t>常量值</t>
+  </si>
+  <si>
+    <t>constant_value</t>
+  </si>
+  <si>
+    <t>常量说明</t>
+  </si>
+  <si>
+    <t>constant_desc</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>create_by</t>
+  </si>
+  <si>
+    <t>最后修改人</t>
+  </si>
+  <si>
+    <t>modify_by</t>
+  </si>
+  <si>
+    <t>clearworld.t_dict_constant</t>
+  </si>
+  <si>
+    <t>字典分类</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>index_dict_code</t>
+  </si>
+  <si>
+    <t>dict_code</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>字典名称</t>
+  </si>
+  <si>
+    <t>dict_name</t>
+  </si>
+  <si>
+    <t>字典编码</t>
+  </si>
+  <si>
+    <t>字典描述</t>
+  </si>
+  <si>
+    <t>dict_desc</t>
+  </si>
+  <si>
+    <t>clearworld.t_dict_data</t>
+  </si>
+  <si>
+    <t>字典分类数据</t>
+  </si>
+  <si>
+    <t>index_dict_code_key</t>
+  </si>
+  <si>
+    <t>dict_code,dict_key</t>
+  </si>
+  <si>
+    <t>dict_key</t>
+  </si>
+  <si>
+    <t>index_dict_key</t>
+  </si>
+  <si>
+    <t>字典标签</t>
+  </si>
+  <si>
+    <t>字典键值</t>
+  </si>
+  <si>
+    <t>dict_value</t>
+  </si>
+  <si>
+    <t>字典排序</t>
+  </si>
+  <si>
+    <t>dict_order</t>
+  </si>
+  <si>
+    <t>Fsign</t>
   </si>
 </sst>
 </file>
@@ -179,7 +411,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -200,15 +432,30 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,40 +466,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,8 +480,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,7 +490,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,7 +526,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,32 +564,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +573,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,7 +609,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,31 +639,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,7 +675,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,25 +741,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,37 +771,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,37 +789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,25 +899,25 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -890,54 +1128,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,6 +1155,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -975,13 +1209,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,168 +1228,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1160,167 +1392,179 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1715,8 +1959,8 @@
   <sheetPr/>
   <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1725,366 +1969,366 @@
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="45" customWidth="1"/>
     <col min="7" max="7" width="47.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15"/>
     <row r="2" ht="17.25" spans="2:7">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" ht="16.5" spans="2:7">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" ht="16.5" spans="2:7">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" ht="16.5" spans="2:7">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" ht="16.5" spans="2:7">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" ht="16.5" spans="2:7">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" ht="16.5" spans="2:7">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" ht="16.5" spans="2:7">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" ht="16.5" spans="2:7">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" ht="16.5" spans="2:7">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="40"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" ht="16.5" spans="2:7">
-      <c r="B13" s="32"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" ht="16.5" spans="2:7">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" ht="16.5" spans="2:7">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="33" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:7">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="47" t="s">
+      <c r="F16" s="55"/>
+      <c r="G16" s="34" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:7">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="47"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" ht="16.5" spans="2:7">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="47"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" ht="16.5" spans="2:7">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="47"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" ht="16.5" spans="2:7">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="47"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" ht="16.5" spans="2:7">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="2:7">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="2:7">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="47"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" ht="16.5" spans="2:7">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="47" t="s">
+      <c r="E24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="48"/>
-      <c r="G24" s="47"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" ht="16.5" spans="2:7">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="47"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" ht="16.5" spans="2:7">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="47"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" ht="16.5" spans="2:7">
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="39"/>
     </row>
     <row r="28" ht="16.5" spans="2:7">
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="54"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="39"/>
     </row>
     <row r="29" ht="17.25" spans="2:7">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="44"/>
     </row>
     <row r="30" ht="15"/>
   </sheetData>
@@ -2116,4 +2360,1257 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="10" style="45" customWidth="1"/>
+    <col min="7" max="7" width="47.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15"/>
+    <row r="2" ht="17.25" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="16.5" spans="2:7">
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="2:7">
+      <c r="B4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:7">
+      <c r="B5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:7">
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:7">
+      <c r="B7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:7">
+      <c r="B8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:7">
+      <c r="B9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:7">
+      <c r="B10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:7">
+      <c r="B11" s="25"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:7">
+      <c r="B12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:7">
+      <c r="B13" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:7">
+      <c r="B14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:7">
+      <c r="B15" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:7">
+      <c r="B16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:7">
+      <c r="B17" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:7">
+      <c r="B18" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:7">
+      <c r="B19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:7">
+      <c r="B20" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:7">
+      <c r="B21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:7">
+      <c r="B22" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:7">
+      <c r="B23" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:7">
+      <c r="B24" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="55"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:7">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:7">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:7">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:7">
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" ht="17.25" spans="2:7">
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" ht="15"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:G5">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="47.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="15"/>
+    <row r="2" ht="17.25" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="16.5" spans="2:7">
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="2:7">
+      <c r="B4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:7">
+      <c r="B5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:7">
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:7">
+      <c r="B7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:7">
+      <c r="B8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:7">
+      <c r="B9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:7">
+      <c r="B10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:7">
+      <c r="B11" s="25"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:7">
+      <c r="B12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:7">
+      <c r="B13" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:7">
+      <c r="B14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:7">
+      <c r="B15" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:7">
+      <c r="B16" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:7">
+      <c r="B17" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:7">
+      <c r="B18" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:7">
+      <c r="B19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="34">
+        <v>1</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:7">
+      <c r="B20" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="34">
+        <v>1</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:7">
+      <c r="B21" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:7">
+      <c r="B22" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:7">
+      <c r="B23" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:7">
+      <c r="B24" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:7">
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:7">
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" ht="17.25" spans="2:7">
+      <c r="B27" s="41"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" customFormat="1" ht="15"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="47.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="15"/>
+    <row r="2" ht="17.25" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="16.5" spans="2:7">
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" ht="16.5" spans="2:7">
+      <c r="B4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:7">
+      <c r="B5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:7">
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:7">
+      <c r="B7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:7">
+      <c r="B8" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:7">
+      <c r="B9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:7">
+      <c r="B10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:7">
+      <c r="B11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:7">
+      <c r="B12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:7">
+      <c r="B13" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="2:7">
+      <c r="B14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:7">
+      <c r="B15" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:7">
+      <c r="B16" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:7">
+      <c r="B17" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:7">
+      <c r="B18" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="34">
+        <v>1</v>
+      </c>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:7">
+      <c r="B19" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:7">
+      <c r="B20" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:7">
+      <c r="B21" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="34">
+        <v>1</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:7">
+      <c r="B22" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="34">
+        <v>1</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:7">
+      <c r="B23" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:7">
+      <c r="B24" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:7">
+      <c r="B25" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:7">
+      <c r="B26" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:7">
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:7">
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" ht="17.25" spans="2:7">
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" customFormat="1" ht="15"/>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/iworks-manager-scripts/input/test.xlsx
+++ b/iworks-manager-scripts/input/test.xlsx
@@ -8,16 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="表设计模板" sheetId="28" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="29" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="30" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="31" r:id="rId4"/>
+    <sheet name="系统常量" sheetId="29" r:id="rId2"/>
+    <sheet name="字典常量" sheetId="30" r:id="rId3"/>
+    <sheet name="字典常量数据" sheetId="31" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>1.表描述</t>
   </si>
@@ -326,7 +326,7 @@
     <t>modify_by</t>
   </si>
   <si>
-    <t>clearworld.t_dict_constant</t>
+    <t>basic.t_dict_constant</t>
   </si>
   <si>
     <t>字典分类</t>
@@ -365,7 +365,7 @@
     <t>dict_desc</t>
   </si>
   <si>
-    <t>clearworld.t_dict_data</t>
+    <t>basic.t_dict_constant_data</t>
   </si>
   <si>
     <t>字典分类数据</t>
@@ -396,9 +396,6 @@
   </si>
   <si>
     <t>dict_order</t>
-  </si>
-  <si>
-    <t>Fsign</t>
   </si>
 </sst>
 </file>
@@ -406,8 +403,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -444,15 +441,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -466,15 +463,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,14 +492,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -518,6 +517,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -526,7 +533,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,9 +568,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,36 +590,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -609,7 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +618,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +648,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,13 +714,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,115 +750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,7 +774,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1122,17 +1119,6 @@
       </top>
       <bottom style="double">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,17 +1135,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,17 +1182,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,16 +1206,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1231,7 +1228,7 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1243,133 +1240,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2785,7 +2782,7 @@
   <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C3" sqref="C3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3180,8 +3177,8 @@
   <sheetPr/>
   <dimension ref="B1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -3454,7 +3451,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>29</v>
